--- a/to_predict_final.xlsx
+++ b/to_predict_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW51"/>
+  <dimension ref="A1:CQ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,52 +511,52 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>comedy</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>sci-fi</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -566,112 +566,342 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>actor in a supporting role</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>_april</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>_august</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>_december</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>_february</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>_january</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>_july</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>_june</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>_march</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>_may</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>_november</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>_october</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>_september</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
       <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a leading role</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ben wilkins and thomas curley)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>best original song</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing (craig mann</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>best visual effects</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>writing (original screenplay)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (j.k. simmons)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>western</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>best animated film</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>best art direction</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing (tom cross)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>documentary</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>sound editing</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>sound mixing</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>best sound</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>costume design</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay (spike jonze)</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>best actress (cate blanchett)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>production design</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>best sound editing</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (jared leto)</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>animated feature film</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>best editing</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>directing</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>war</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>make up and hair styling</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>writing (adapted screenplay)</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>film editing</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a leading role</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress (patricia arquette)</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>best cinematography</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>best actor (matthew mcconaughey)</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>best director</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>best picture</t>
         </is>
       </c>
     </row>
@@ -728,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -770,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -800,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -821,6 +1051,144 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -949,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -970,6 +1338,144 @@
         <v>0</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1026,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1035,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1086,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1119,6 +1625,144 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1235,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1268,6 +1912,144 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1324,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1333,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1390,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1417,6 +2199,144 @@
         <v>0</v>
       </c>
       <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1473,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1512,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1542,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
@@ -1566,6 +2486,144 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1622,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1658,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1682,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1715,6 +2773,144 @@
         <v>0</v>
       </c>
       <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1834,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -1864,6 +3060,144 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1929,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1983,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -2013,6 +3347,144 @@
         <v>0</v>
       </c>
       <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2087,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -2129,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
@@ -2162,6 +3634,144 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2293,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2311,6 +3921,144 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2391,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2427,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
@@ -2460,6 +4208,144 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2522,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2555,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2576,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -2609,6 +4495,144 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2674,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2737,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -2758,6 +4782,144 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2817,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2832,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2850,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2883,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -2907,6 +5069,144 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3005,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -3020,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -3056,6 +5356,144 @@
         <v>0</v>
       </c>
       <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -3130,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -3163,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3205,6 +5643,144 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3312,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -3354,6 +5930,144 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -3449,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3458,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -3503,6 +6217,144 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -3592,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3628,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -3652,6 +6504,144 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3777,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -3801,6 +6791,144 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3896,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3920,10 +7048,10 @@
         <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -3950,6 +7078,144 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -4012,22 +7278,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -4042,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -4069,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -4099,6 +7365,144 @@
         <v>0</v>
       </c>
       <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4224,10 +7628,10 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -4248,6 +7652,144 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4310,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -4325,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -4340,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -4373,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -4397,6 +7939,144 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4501,10 +8181,10 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -4546,6 +8226,144 @@
         <v>0</v>
       </c>
       <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4605,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -4620,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -4647,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -4695,6 +8513,144 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4751,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -4760,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4811,10 +8767,10 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -4844,6 +8800,144 @@
         <v>0</v>
       </c>
       <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4900,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -4909,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4933,13 +9027,13 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -4960,10 +9054,10 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -4993,6 +9087,144 @@
         <v>0</v>
       </c>
       <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5070,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -5085,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -5109,10 +9341,10 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
@@ -5142,6 +9374,144 @@
         <v>0</v>
       </c>
       <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -5237,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -5246,10 +9616,10 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
@@ -5291,6 +9661,144 @@
         <v>0</v>
       </c>
       <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5353,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -5386,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -5419,10 +9927,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -5440,6 +9948,144 @@
         <v>0</v>
       </c>
       <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5508,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -5553,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -5589,6 +10235,144 @@
         <v>0</v>
       </c>
       <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5645,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -5654,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5714,10 +10498,10 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" t="n">
         <v>0</v>
@@ -5738,6 +10522,144 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5803,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5830,16 +10752,16 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -5887,6 +10809,144 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5943,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -5952,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -6009,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -6036,6 +11096,144 @@
         <v>0</v>
       </c>
       <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6098,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -6131,16 +11329,16 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -6185,6 +11383,144 @@
         <v>0</v>
       </c>
       <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6247,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -6280,16 +11616,16 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
         <v>0</v>
@@ -6334,6 +11670,144 @@
         <v>0</v>
       </c>
       <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6390,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -6432,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -6456,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
@@ -6483,6 +11957,144 @@
         <v>0</v>
       </c>
       <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6545,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -6575,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -6584,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
         <v>0</v>
@@ -6632,6 +12244,144 @@
         <v>0</v>
       </c>
       <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6688,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -6730,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>0</v>
@@ -6757,10 +12507,10 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
         <v>0</v>
@@ -6781,6 +12531,144 @@
         <v>0</v>
       </c>
       <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,10 +12773,10 @@
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
         <v>0</v>
@@ -6930,6 +12818,144 @@
         <v>0</v>
       </c>
       <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7034,10 +13060,10 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
         <v>0</v>
@@ -7079,6 +13105,144 @@
         <v>0</v>
       </c>
       <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7135,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -7144,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -7204,10 +13368,10 @@
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" t="n">
         <v>0</v>
@@ -7228,6 +13392,144 @@
         <v>0</v>
       </c>
       <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7287,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -7302,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -7338,10 +13640,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
         <v>0</v>
@@ -7377,6 +13679,144 @@
         <v>0</v>
       </c>
       <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7439,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -7472,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" t="n">
         <v>0</v>
@@ -7490,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
@@ -7526,6 +13966,144 @@
         <v>0</v>
       </c>
       <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7591,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -7618,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -7657,10 +14235,10 @@
         <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" t="n">
         <v>0</v>
@@ -7675,6 +14253,144 @@
         <v>0</v>
       </c>
       <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7728,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7743,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -7752,10 +14468,10 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -7806,10 +14522,10 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
@@ -7824,6 +14540,144 @@
         <v>0</v>
       </c>
       <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7880,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -7925,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="AG50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
         <v>0</v>
@@ -7973,6 +14827,144 @@
         <v>0</v>
       </c>
       <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8032,13 +15024,13 @@
         <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -8047,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
@@ -8074,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="AG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -8122,6 +15114,144 @@
         <v>0</v>
       </c>
       <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/to_predict_final.xlsx
+++ b/to_predict_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ51"/>
+  <dimension ref="A1:CP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,519 +434,519 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>average critics</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>average audience</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>opening weekend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>domestic gross</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>foreign gross</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>of gross earned abroad</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>adaptation</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>based on a true story</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>remake</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sequel</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a leading role</t>
+        </is>
+      </c>
       <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a supporting role</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a leading role</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>animated feature film</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ben wilkins and thomas curley)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>best actor (matthew mcconaughey)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>best actress (cate blanchett)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>best animated film</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>best art direction</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>best cinematography</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>best director</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>best editing</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing (tom cross)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay (spike jonze)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>best original song</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>best picture</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>best sound</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>best sound editing</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing (craig mann</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (j.k. simmons)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor (jared leto)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress (patricia arquette)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>best visual effects</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>costume design</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>directing</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>film editing</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>make up and hair styling</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>production design</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>sound editing</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>sound mixing</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>writing (adapted screenplay)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>writing (original screenplay)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>sci-fi</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>mystery</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>documentary</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>action</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>history</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>thrilled</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>horror</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>crime</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>sci-fi</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>actor in a supporting role</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>_april</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>_august</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>_december</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>_february</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>_january</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>_july</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>_june</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>_march</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>_may</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>_november</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>_october</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>_september</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>best adapted screenplay</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>actress in a leading role</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>ben wilkins and thomas curley)</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>best original song</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing (craig mann</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>best animated feature</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>best visual effects</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>writing (original screenplay)</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (j.k. simmons)</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>sports</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>best actress</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>visual effects</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>western</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>best animated film</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>best art direction</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>original song</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>best actor</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing (tom cross)</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>documentary</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>sound editing</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>sound mixing</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>best sound</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>costume design</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay (spike jonze)</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>best actress (cate blanchett)</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>production design</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>best sound editing</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>actress in a supporting role</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (jared leto)</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>animated feature film</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>best editing</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>directing</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>war</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>make up and hair styling</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>cinematography</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>writing (adapted screenplay)</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>film editing</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>actor in a leading role</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress (patricia arquette)</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>best cinematography</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>best actor (matthew mcconaughey)</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>best director</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>best picture</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>66.30769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>66.30769230769231</v>
+        <v>21000000</v>
       </c>
       <c r="E2" t="n">
-        <v>21000000</v>
+        <v>3640355</v>
       </c>
       <c r="F2" t="n">
-        <v>3640355</v>
+        <v>62525155</v>
       </c>
       <c r="G2" t="n">
-        <v>62525155</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40000000000001</v>
+        <v>21000000000000</v>
       </c>
       <c r="I2" t="n">
-        <v>21000000000000</v>
+        <v>3.1507</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1507</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1183,57 +1183,54 @@
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>1399373</v>
       </c>
       <c r="E3" t="n">
-        <v>1399373</v>
+        <v>3973263</v>
       </c>
       <c r="F3" t="n">
-        <v>3973263</v>
+        <v>115674827.125</v>
       </c>
       <c r="G3" t="n">
-        <v>115674827.125</v>
+        <v>0.4687875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4687875</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="I3" t="n">
-        <v>63614285714285.72</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>10.82652857142857</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1278,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1317,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1395,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -1470,48 +1467,45 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>8901419</v>
       </c>
       <c r="E4" t="n">
-        <v>8901419</v>
+        <v>21360215</v>
       </c>
       <c r="F4" t="n">
-        <v>21360215</v>
+        <v>223648651.4166667</v>
       </c>
       <c r="G4" t="n">
-        <v>223648651.4166667</v>
+        <v>51.29999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>51.29999999999999</v>
+        <v>44000000000000</v>
       </c>
       <c r="I4" t="n">
-        <v>44000000000000</v>
+        <v>0.4855</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4855</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1523,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1541,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1667,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -1745,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -1760,45 +1754,42 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>2919717</v>
       </c>
       <c r="E5" t="n">
-        <v>2919717</v>
+        <v>8286741</v>
       </c>
       <c r="F5" t="n">
-        <v>8286741</v>
+        <v>12959213</v>
       </c>
       <c r="G5" t="n">
-        <v>12959213</v>
+        <v>0.61</v>
       </c>
       <c r="H5" t="n">
-        <v>0.61</v>
+        <v>60000000000000</v>
       </c>
       <c r="I5" t="n">
-        <v>60000000000000</v>
+        <v>0.3541</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3541</v>
+        <v>6.7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1810,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1846,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1879,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1993,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
@@ -2032,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2047,45 +2038,42 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>14711101</v>
       </c>
       <c r="E6" t="n">
-        <v>14711101</v>
+        <v>50316123</v>
       </c>
       <c r="F6" t="n">
-        <v>50316123</v>
+        <v>40928790</v>
       </c>
       <c r="G6" t="n">
-        <v>40928790</v>
+        <v>0.4486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4486</v>
+        <v>12000000000000</v>
       </c>
       <c r="I6" t="n">
-        <v>12000000000000</v>
+        <v>7.6037</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6037</v>
+        <v>6.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -2094,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2115,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2172,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -2241,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2325,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
@@ -2334,45 +2322,42 @@
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>16627491</v>
       </c>
       <c r="E7" t="n">
-        <v>16627491</v>
+        <v>48947356</v>
       </c>
       <c r="F7" t="n">
-        <v>48947356</v>
+        <v>40928790</v>
       </c>
       <c r="G7" t="n">
-        <v>40928790</v>
+        <v>0.4486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4486</v>
+        <v>64000000000000</v>
       </c>
       <c r="I7" t="n">
-        <v>64000000000000</v>
+        <v>1.2253</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2253</v>
+        <v>5.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -2381,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2402,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2420,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -2432,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -2462,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -2528,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -2564,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY7" t="n">
         <v>0</v>
@@ -2615,60 +2600,57 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>2540240</v>
       </c>
       <c r="E8" t="n">
-        <v>2540240</v>
+        <v>6782066</v>
       </c>
       <c r="F8" t="n">
-        <v>6782066</v>
+        <v>8961988</v>
       </c>
       <c r="G8" t="n">
-        <v>8961988</v>
+        <v>57.3</v>
       </c>
       <c r="H8" t="n">
-        <v>57.3</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="I8" t="n">
-        <v>73183333333333.33</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>3.619091666666666</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2689,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2716,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -2740,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -2815,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -2869,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -2893,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -2908,54 +2890,51 @@
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>31625971</v>
       </c>
       <c r="E9" t="n">
-        <v>31625971</v>
+        <v>100916094</v>
       </c>
       <c r="F9" t="n">
-        <v>100916094</v>
+        <v>30813958.125</v>
       </c>
       <c r="G9" t="n">
-        <v>30813958.125</v>
+        <v>12.753675</v>
       </c>
       <c r="H9" t="n">
-        <v>12.753675</v>
+        <v>155000000000000</v>
       </c>
       <c r="I9" t="n">
-        <v>155000000000000</v>
+        <v>3.0196</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0196</v>
+        <v>6.3</v>
       </c>
       <c r="K9" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2970,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -2985,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -3030,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -3105,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -3183,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
@@ -3195,54 +3174,51 @@
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>1763070</v>
       </c>
       <c r="E10" t="n">
-        <v>1763070</v>
+        <v>3005408</v>
       </c>
       <c r="F10" t="n">
-        <v>3005408</v>
+        <v>208313889.7440476</v>
       </c>
       <c r="G10" t="n">
-        <v>208313889.7440476</v>
+        <v>51.72857142857141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.72857142857141</v>
+        <v>5000000000000</v>
       </c>
       <c r="I10" t="n">
-        <v>5000000000000</v>
+        <v>0.6011</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6011</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -3263,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -3317,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -3389,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -3470,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
@@ -3482,45 +3458,42 @@
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>30035838</v>
       </c>
       <c r="E11" t="n">
-        <v>30035838</v>
+        <v>80001807</v>
       </c>
       <c r="F11" t="n">
-        <v>80001807</v>
+        <v>173888894</v>
       </c>
       <c r="G11" t="n">
-        <v>173888894</v>
+        <v>68.5</v>
       </c>
       <c r="H11" t="n">
-        <v>68.5</v>
+        <v>110000000000000</v>
       </c>
       <c r="I11" t="n">
-        <v>110000000000000</v>
+        <v>2.3081</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3081</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3532,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -3544,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3601,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -3679,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -3754,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -3769,48 +3742,45 @@
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>26608020</v>
       </c>
       <c r="E12" t="n">
-        <v>26608020</v>
+        <v>68549695</v>
       </c>
       <c r="F12" t="n">
-        <v>68549695</v>
+        <v>62907452</v>
       </c>
       <c r="G12" t="n">
-        <v>62907452</v>
+        <v>0.4785</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4785</v>
+        <v>42000000000000</v>
       </c>
       <c r="I12" t="n">
-        <v>42000000000000</v>
+        <v>3.1299</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1299</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>6.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3855,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -3903,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4002,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
@@ -4056,48 +4026,45 @@
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>251569</v>
       </c>
       <c r="E13" t="n">
-        <v>251569</v>
+        <v>3689637</v>
       </c>
       <c r="F13" t="n">
-        <v>3689637</v>
+        <v>33545454.390625</v>
       </c>
       <c r="G13" t="n">
-        <v>33545454.390625</v>
+        <v>7.185384375</v>
       </c>
       <c r="H13" t="n">
-        <v>7.185384375</v>
+        <v>59857142857142.86</v>
       </c>
       <c r="I13" t="n">
-        <v>59857142857142.86</v>
+        <v>1.72075</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72075</v>
+        <v>6.9</v>
       </c>
       <c r="K13" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -4139,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -4175,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -4295,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -4328,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -4343,48 +4310,45 @@
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>11504710</v>
       </c>
       <c r="E14" t="n">
-        <v>11504710</v>
+        <v>29975167</v>
       </c>
       <c r="F14" t="n">
-        <v>29975167</v>
+        <v>29875204.68945312</v>
       </c>
       <c r="G14" t="n">
-        <v>29875204.68945312</v>
+        <v>8.023744921875</v>
       </c>
       <c r="H14" t="n">
-        <v>8.023744921875</v>
+        <v>55000000000000</v>
       </c>
       <c r="I14" t="n">
-        <v>55000000000000</v>
+        <v>0.7936</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7936</v>
+        <v>7.3</v>
       </c>
       <c r="K14" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -4441,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -4462,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -4573,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -4615,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -4630,54 +4594,51 @@
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>3106730</v>
       </c>
       <c r="E15" t="n">
-        <v>3106730</v>
+        <v>6546159</v>
       </c>
       <c r="F15" t="n">
-        <v>6546159</v>
+        <v>906254</v>
       </c>
       <c r="G15" t="n">
-        <v>906254</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>5000000000000</v>
       </c>
       <c r="I15" t="n">
-        <v>5000000000000</v>
+        <v>1.4905</v>
       </c>
       <c r="J15" t="n">
-        <v>1.4905</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -4698,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -4761,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -4824,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -4914,57 +4875,54 @@
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>5319280</v>
       </c>
       <c r="E16" t="n">
-        <v>5319280</v>
+        <v>17000612</v>
       </c>
       <c r="F16" t="n">
-        <v>17000612</v>
+        <v>25746173.77563477</v>
       </c>
       <c r="G16" t="n">
-        <v>25746173.77563477</v>
+        <v>8.966900537109375</v>
       </c>
       <c r="H16" t="n">
-        <v>8.966900537109375</v>
+        <v>25000000000000</v>
       </c>
       <c r="I16" t="n">
-        <v>25000000000000</v>
+        <v>1.6764</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6764</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -4994,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -5012,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -5045,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -5120,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -5165,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -5198,51 +5156,48 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>75812205</v>
       </c>
       <c r="E17" t="n">
-        <v>75812205</v>
+        <v>211630916</v>
       </c>
       <c r="F17" t="n">
-        <v>211630916</v>
+        <v>333301651</v>
       </c>
       <c r="G17" t="n">
-        <v>333301651</v>
+        <v>0.6115999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6115999999999999</v>
+        <v>195000000000000</v>
       </c>
       <c r="I17" t="n">
-        <v>195000000000000</v>
+        <v>2.7945</v>
       </c>
       <c r="J17" t="n">
-        <v>2.7945</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>6.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -5254,16 +5209,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -5320,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -5440,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -5473,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -5491,48 +5446,45 @@
         <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>25010928</v>
       </c>
       <c r="E18" t="n">
-        <v>25010928</v>
+        <v>115234093</v>
       </c>
       <c r="F18" t="n">
-        <v>115234093</v>
+        <v>235984098</v>
       </c>
       <c r="G18" t="n">
-        <v>235984098</v>
+        <v>0.6718999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6718999999999999</v>
+        <v>50000000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>50000000000000</v>
+        <v>7.024400000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>7.024400000000001</v>
+        <v>6.309333333333332</v>
       </c>
       <c r="K18" t="n">
-        <v>6.309333333333332</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -5553,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -5601,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -5688,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -5754,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -5778,48 +5730,45 @@
         <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>16000495</v>
       </c>
       <c r="E19" t="n">
-        <v>16000495</v>
+        <v>44141550</v>
       </c>
       <c r="F19" t="n">
-        <v>44141550</v>
+        <v>48559860</v>
       </c>
       <c r="G19" t="n">
-        <v>48559860</v>
+        <v>0.5238</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5238</v>
+        <v>40000000000000</v>
       </c>
       <c r="I19" t="n">
-        <v>40000000000000</v>
+        <v>2.3175</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3175</v>
+        <v>7.4</v>
       </c>
       <c r="K19" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -5888,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
         <v>0</v>
@@ -6041,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="CH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -6065,48 +6014,45 @@
         <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>5861836</v>
       </c>
       <c r="E20" t="n">
-        <v>5861836</v>
+        <v>26514814</v>
       </c>
       <c r="F20" t="n">
-        <v>26514814</v>
+        <v>28851163.74758911</v>
       </c>
       <c r="G20" t="n">
-        <v>28851163.74758911</v>
+        <v>8.587763104248047</v>
       </c>
       <c r="H20" t="n">
-        <v>8.587763104248047</v>
+        <v>25000000000000</v>
       </c>
       <c r="I20" t="n">
-        <v>25000000000000</v>
+        <v>1.72075</v>
       </c>
       <c r="J20" t="n">
-        <v>1.72075</v>
+        <v>7.1</v>
       </c>
       <c r="K20" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -6163,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -6172,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -6295,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX20" t="n">
         <v>0</v>
@@ -6325,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -6352,45 +6298,42 @@
         <v>0</v>
       </c>
       <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>56237634</v>
       </c>
       <c r="E21" t="n">
-        <v>56237634</v>
+        <v>187164171</v>
       </c>
       <c r="F21" t="n">
-        <v>187164171</v>
+        <v>217884434</v>
       </c>
       <c r="G21" t="n">
-        <v>217884434</v>
+        <v>0.5379</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5379</v>
+        <v>175000000000000</v>
       </c>
       <c r="I21" t="n">
-        <v>175000000000000</v>
+        <v>2.3146</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3146</v>
+        <v>6.383288888888887</v>
       </c>
       <c r="K21" t="n">
-        <v>6.383288888888887</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -6402,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -6432,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -6480,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
@@ -6558,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
@@ -6633,51 +6576,48 @@
         <v>0</v>
       </c>
       <c r="CN21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO21" t="n">
         <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>805000</v>
       </c>
       <c r="E22" t="n">
-        <v>805000</v>
+        <v>10640105</v>
       </c>
       <c r="F22" t="n">
-        <v>10640105</v>
+        <v>4739790</v>
       </c>
       <c r="G22" t="n">
-        <v>4739790</v>
+        <v>0.3082</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3082</v>
+        <v>300000000000</v>
       </c>
       <c r="I22" t="n">
-        <v>300000000000</v>
+        <v>61.5196</v>
       </c>
       <c r="J22" t="n">
-        <v>61.5196</v>
+        <v>6.1</v>
       </c>
       <c r="K22" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -6689,10 +6629,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -6767,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -6920,51 +6860,48 @@
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO22" t="n">
         <v>0</v>
       </c>
       <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>4003993</v>
       </c>
       <c r="E23" t="n">
-        <v>4003993</v>
+        <v>9561064</v>
       </c>
       <c r="F23" t="n">
-        <v>9561064</v>
+        <v>17804403</v>
       </c>
       <c r="G23" t="n">
-        <v>17804403</v>
+        <v>0.6506000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6506000000000001</v>
+        <v>2800000000000</v>
       </c>
       <c r="I23" t="n">
-        <v>2800000000000</v>
+        <v>9.773400000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>9.773400000000001</v>
+        <v>6.335508148148147</v>
       </c>
       <c r="K23" t="n">
-        <v>6.335508148148147</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -6973,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -7024,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -7048,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -7156,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23" t="n">
         <v>0</v>
@@ -7201,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM23" t="n">
         <v>0</v>
@@ -7213,45 +7150,42 @@
         <v>0</v>
       </c>
       <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>1755325</v>
       </c>
       <c r="E24" t="n">
-        <v>1755325</v>
+        <v>4330720</v>
       </c>
       <c r="F24" t="n">
-        <v>4330720</v>
+        <v>102933</v>
       </c>
       <c r="G24" t="n">
-        <v>102933</v>
+        <v>0.0232</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0232</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="I24" t="n">
-        <v>63614285714285.72</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="J24" t="n">
-        <v>10.82652857142857</v>
+        <v>6.8</v>
       </c>
       <c r="K24" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -7260,16 +7194,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -7278,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -7287,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -7335,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
         <v>0</v>
@@ -7425,10 +7359,10 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
@@ -7458,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
@@ -7488,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -7500,54 +7434,51 @@
         <v>0</v>
       </c>
       <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>3600355</v>
       </c>
       <c r="E25" t="n">
-        <v>3600355</v>
+        <v>9030855</v>
       </c>
       <c r="F25" t="n">
-        <v>9030855</v>
+        <v>9042578</v>
       </c>
       <c r="G25" t="n">
-        <v>9042578</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>6000000000000</v>
       </c>
       <c r="I25" t="n">
-        <v>6000000000000</v>
+        <v>3.0122</v>
       </c>
       <c r="J25" t="n">
-        <v>3.0122</v>
+        <v>6.3</v>
       </c>
       <c r="K25" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -7628,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
@@ -7781,60 +7712,57 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO25" t="n">
         <v>0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>63.625</v>
       </c>
       <c r="C26" t="n">
-        <v>63.625</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>21115423.5</v>
       </c>
       <c r="E26" t="n">
-        <v>21115423.5</v>
+        <v>2033057</v>
       </c>
       <c r="F26" t="n">
-        <v>2033057</v>
+        <v>3475600</v>
       </c>
       <c r="G26" t="n">
-        <v>3475600</v>
+        <v>0.6309</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6309</v>
+        <v>5000000000000</v>
       </c>
       <c r="I26" t="n">
-        <v>5000000000000</v>
+        <v>1.1017</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1017</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -7843,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -7852,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -7915,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -7999,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
@@ -8032,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -8068,60 +7996,57 @@
         <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO26" t="n">
         <v>0</v>
       </c>
       <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>700160</v>
       </c>
       <c r="E27" t="n">
-        <v>700160</v>
+        <v>2241980</v>
       </c>
       <c r="F27" t="n">
-        <v>2241980</v>
+        <v>1033099</v>
       </c>
       <c r="G27" t="n">
-        <v>1033099</v>
+        <v>30.3</v>
       </c>
       <c r="H27" t="n">
-        <v>30.3</v>
+        <v>34666666666666.66</v>
       </c>
       <c r="I27" t="n">
-        <v>34666666666666.66</v>
+        <v>1.5647</v>
       </c>
       <c r="J27" t="n">
-        <v>1.5647</v>
+        <v>6.1</v>
       </c>
       <c r="K27" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -8181,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -8334,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -8361,54 +8286,51 @@
         <v>0</v>
       </c>
       <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C28" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" t="n">
-        <v>87</v>
+        <v>204793</v>
       </c>
       <c r="E28" t="n">
-        <v>204793</v>
+        <v>20437883</v>
       </c>
       <c r="F28" t="n">
-        <v>20437883</v>
+        <v>315805</v>
       </c>
       <c r="G28" t="n">
-        <v>315805</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.4</v>
+        <v>6200000000000</v>
       </c>
       <c r="I28" t="n">
-        <v>6200000000000</v>
+        <v>3.3474</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3474</v>
+        <v>7.6</v>
       </c>
       <c r="K28" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -8423,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -8465,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -8558,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -8618,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="CF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG28" t="n">
         <v>0</v>
@@ -8648,54 +8570,51 @@
         <v>0</v>
       </c>
       <c r="CP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>246305</v>
       </c>
       <c r="E29" t="n">
-        <v>246305</v>
+        <v>15500045</v>
       </c>
       <c r="F29" t="n">
-        <v>15500045</v>
+        <v>6887012</v>
       </c>
       <c r="G29" t="n">
-        <v>6887012</v>
+        <v>30.8</v>
       </c>
       <c r="H29" t="n">
-        <v>30.8</v>
+        <v>4000000000000</v>
       </c>
       <c r="I29" t="n">
-        <v>4000000000000</v>
+        <v>5.596799999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>5.596799999999999</v>
+        <v>6.5</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -8716,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -8767,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -8842,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="BK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" t="n">
         <v>0</v>
@@ -8920,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
@@ -8935,54 +8854,51 @@
         <v>0</v>
       </c>
       <c r="CP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>10101066</v>
       </c>
       <c r="E30" t="n">
-        <v>10101066</v>
+        <v>40501717</v>
       </c>
       <c r="F30" t="n">
-        <v>40501717</v>
+        <v>26387576.71603775</v>
       </c>
       <c r="G30" t="n">
-        <v>26387576.71603775</v>
+        <v>9.595758492279053</v>
       </c>
       <c r="H30" t="n">
-        <v>9.595758492279053</v>
+        <v>45000000000000</v>
       </c>
       <c r="I30" t="n">
-        <v>45000000000000</v>
+        <v>3.355</v>
       </c>
       <c r="J30" t="n">
-        <v>3.355</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -9003,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -9021,13 +8937,13 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -9054,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -9129,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" t="n">
         <v>0</v>
@@ -9144,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ30" t="n">
         <v>0</v>
@@ -9168,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="BX30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY30" t="n">
         <v>0</v>
@@ -9207,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="CK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL30" t="n">
         <v>0</v>
@@ -9222,54 +9138,51 @@
         <v>0</v>
       </c>
       <c r="CP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>6444896</v>
       </c>
       <c r="E31" t="n">
-        <v>6444896</v>
+        <v>14947969</v>
       </c>
       <c r="F31" t="n">
-        <v>14947969</v>
+        <v>14452857</v>
       </c>
       <c r="G31" t="n">
-        <v>14452857</v>
+        <v>0.4916</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4916</v>
+        <v>80000000000000</v>
       </c>
       <c r="I31" t="n">
-        <v>80000000000000</v>
+        <v>0.3675</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3675</v>
+        <v>6.1</v>
       </c>
       <c r="K31" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -9278,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -9287,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -9305,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -9320,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -9341,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
@@ -9434,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR31" t="n">
         <v>0</v>
@@ -9452,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="BW31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX31" t="n">
         <v>0</v>
@@ -9461,13 +9374,13 @@
         <v>0</v>
       </c>
       <c r="BZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA31" t="n">
         <v>0</v>
       </c>
       <c r="CB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31" t="n">
         <v>0</v>
@@ -9494,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="CK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL31" t="n">
         <v>0</v>
@@ -9509,51 +9422,48 @@
         <v>0</v>
       </c>
       <c r="CP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32" t="n">
-        <v>58</v>
+        <v>7768371</v>
       </c>
       <c r="E32" t="n">
-        <v>7768371</v>
+        <v>29796477</v>
       </c>
       <c r="F32" t="n">
-        <v>29796477</v>
+        <v>112069769.6666667</v>
       </c>
       <c r="G32" t="n">
-        <v>112069769.6666667</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>60000000000000</v>
       </c>
       <c r="I32" t="n">
-        <v>60000000000000</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="J32" t="n">
-        <v>5.583269230769232</v>
+        <v>6.351208691358024</v>
       </c>
       <c r="K32" t="n">
-        <v>6.351208691358024</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -9607,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -9616,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -9739,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="BW32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX32" t="n">
         <v>0</v>
@@ -9769,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH32" t="n">
         <v>0</v>
@@ -9796,51 +9706,48 @@
         <v>0</v>
       </c>
       <c r="CP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C33" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>54</v>
+        <v>4651571</v>
       </c>
       <c r="E33" t="n">
-        <v>4651571</v>
+        <v>8237403</v>
       </c>
       <c r="F33" t="n">
-        <v>8237403</v>
+        <v>28825147.30554247</v>
       </c>
       <c r="G33" t="n">
-        <v>28825147.30554247</v>
+        <v>6.945228303813934</v>
       </c>
       <c r="H33" t="n">
-        <v>6.945228303813934</v>
+        <v>50000000000000</v>
       </c>
       <c r="I33" t="n">
-        <v>50000000000000</v>
+        <v>0.2546</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2546</v>
+        <v>6.3</v>
       </c>
       <c r="K33" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -9894,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -9927,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -10026,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="BW33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX33" t="n">
         <v>0</v>
@@ -10080,48 +9987,45 @@
         <v>0</v>
       </c>
       <c r="CO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>71</v>
+        <v>34952180</v>
       </c>
       <c r="E34" t="n">
-        <v>34952180</v>
+        <v>115620025</v>
       </c>
       <c r="F34" t="n">
-        <v>115620025</v>
+        <v>234951977</v>
       </c>
       <c r="G34" t="n">
-        <v>234951977</v>
+        <v>0.6701999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6701999999999999</v>
+        <v>75000000000000</v>
       </c>
       <c r="I34" t="n">
-        <v>75000000000000</v>
+        <v>4.6743</v>
       </c>
       <c r="J34" t="n">
-        <v>4.6743</v>
+        <v>6.367955937448558</v>
       </c>
       <c r="K34" t="n">
-        <v>6.367955937448558</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10133,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10157,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -10199,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="n">
         <v>0</v>
@@ -10298,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS34" t="n">
         <v>0</v>
@@ -10352,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -10370,54 +10274,51 @@
         <v>0</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>35</v>
+        <v>13743111</v>
       </c>
       <c r="E35" t="n">
-        <v>13743111</v>
+        <v>31713110</v>
       </c>
       <c r="F35" t="n">
-        <v>31713110</v>
+        <v>1819483</v>
       </c>
       <c r="G35" t="n">
-        <v>1819483</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05429999999999999</v>
+        <v>19000000000000</v>
       </c>
       <c r="I35" t="n">
-        <v>19000000000000</v>
+        <v>1.7649</v>
       </c>
       <c r="J35" t="n">
-        <v>1.7649</v>
+        <v>6.372486333278462</v>
       </c>
       <c r="K35" t="n">
-        <v>6.372486333278462</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10438,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -10498,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -10564,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="BK35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
         <v>0</v>
@@ -10651,60 +10552,57 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO35" t="n">
         <v>0</v>
       </c>
       <c r="CP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n">
-        <v>44</v>
+        <v>26347631</v>
       </c>
       <c r="E36" t="n">
-        <v>26347631</v>
+        <v>54733739</v>
       </c>
       <c r="F36" t="n">
-        <v>54733739</v>
+        <v>67400000</v>
       </c>
       <c r="G36" t="n">
-        <v>67400000</v>
+        <v>55.2</v>
       </c>
       <c r="H36" t="n">
-        <v>55.2</v>
+        <v>9000000000000</v>
       </c>
       <c r="I36" t="n">
-        <v>9000000000000</v>
+        <v>13.5704</v>
       </c>
       <c r="J36" t="n">
-        <v>13.5704</v>
+        <v>5.2</v>
       </c>
       <c r="K36" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10752,13 +10650,13 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -10905,13 +10803,13 @@
         <v>0</v>
       </c>
       <c r="CC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD36" t="n">
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF36" t="n">
         <v>0</v>
@@ -10944,54 +10842,51 @@
         <v>0</v>
       </c>
       <c r="CP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
         <v>53</v>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>13582231</v>
       </c>
       <c r="E37" t="n">
-        <v>13582231</v>
+        <v>68566296</v>
       </c>
       <c r="F37" t="n">
-        <v>68566296</v>
+        <v>118577563.8444445</v>
       </c>
       <c r="G37" t="n">
-        <v>118577563.8444445</v>
+        <v>4.078813333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>4.078813333333334</v>
+        <v>10000000000000</v>
       </c>
       <c r="I37" t="n">
-        <v>10000000000000</v>
+        <v>6.856599999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>6.856599999999999</v>
+        <v>6.377318755497027</v>
       </c>
       <c r="K37" t="n">
-        <v>6.377318755497027</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -11012,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -11069,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
         <v>0</v>
@@ -11138,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="BK37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" t="n">
         <v>0</v>
@@ -11222,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN37" t="n">
         <v>0</v>
@@ -11231,48 +11126,45 @@
         <v>0</v>
       </c>
       <c r="CP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D38" t="n">
-        <v>86</v>
+        <v>8137584</v>
       </c>
       <c r="E38" t="n">
-        <v>8137584</v>
+        <v>26402818</v>
       </c>
       <c r="F38" t="n">
-        <v>26402818</v>
+        <v>7371145</v>
       </c>
       <c r="G38" t="n">
-        <v>7371145</v>
+        <v>21.9</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="I38" t="n">
-        <v>73183333333333.33</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="J38" t="n">
-        <v>3.619091666666666</v>
+        <v>7.5</v>
       </c>
       <c r="K38" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11329,13 +11221,13 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
@@ -11461,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX38" t="n">
         <v>0</v>
@@ -11488,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG38" t="n">
         <v>0</v>
@@ -11518,48 +11410,45 @@
         <v>0</v>
       </c>
       <c r="CP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C39" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>85</v>
+        <v>126707459</v>
       </c>
       <c r="E39" t="n">
-        <v>126707459</v>
+        <v>718732821</v>
       </c>
       <c r="F39" t="n">
-        <v>718732821</v>
+        <v>756440284</v>
       </c>
       <c r="G39" t="n">
-        <v>756440284</v>
+        <v>0.5128</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5128</v>
+        <v>170000000000000</v>
       </c>
       <c r="I39" t="n">
-        <v>170000000000000</v>
+        <v>8.6775</v>
       </c>
       <c r="J39" t="n">
-        <v>8.6775</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11616,13 +11505,13 @@
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -11748,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="BW39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX39" t="n">
         <v>0</v>
@@ -11775,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG39" t="n">
         <v>0</v>
@@ -11805,45 +11694,42 @@
         <v>0</v>
       </c>
       <c r="CP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D40" t="n">
-        <v>78</v>
+        <v>47776293</v>
       </c>
       <c r="E40" t="n">
-        <v>47776293</v>
+        <v>110500138</v>
       </c>
       <c r="F40" t="n">
-        <v>110500138</v>
+        <v>275400000</v>
       </c>
       <c r="G40" t="n">
-        <v>275400000</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>71.40000000000001</v>
+        <v>170000000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>170000000000000</v>
+        <v>2.27</v>
       </c>
       <c r="J40" t="n">
-        <v>2.27</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11855,16 +11741,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -11930,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
         <v>0</v>
@@ -12041,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="BY40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ40" t="n">
         <v>0</v>
@@ -12083,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="CM40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN40" t="n">
         <v>0</v>
@@ -12092,51 +11978,48 @@
         <v>0</v>
       </c>
       <c r="CP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D41" t="n">
-        <v>78</v>
+        <v>10845330</v>
       </c>
       <c r="E41" t="n">
-        <v>10845330</v>
+        <v>32316575</v>
       </c>
       <c r="F41" t="n">
-        <v>32316575</v>
+        <v>9325905</v>
       </c>
       <c r="G41" t="n">
-        <v>9325905</v>
+        <v>0.224</v>
       </c>
       <c r="H41" t="n">
-        <v>0.224</v>
+        <v>15000000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>15000000000000</v>
+        <v>2.7762</v>
       </c>
       <c r="J41" t="n">
-        <v>2.7762</v>
+        <v>6.455806672530161</v>
       </c>
       <c r="K41" t="n">
-        <v>6.455806672530161</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -12157,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -12196,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -12337,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="CB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC41" t="n">
         <v>0</v>
@@ -12349,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="CF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG41" t="n">
         <v>0</v>
@@ -12379,45 +12262,42 @@
         <v>0</v>
       </c>
       <c r="CP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" t="n">
-        <v>54</v>
+        <v>8351109</v>
       </c>
       <c r="E42" t="n">
-        <v>8351109</v>
+        <v>17199425</v>
       </c>
       <c r="F42" t="n">
-        <v>17199425</v>
+        <v>38400000</v>
       </c>
       <c r="G42" t="n">
-        <v>38400000</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>69.09999999999999</v>
+        <v>48000000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>48000000000000</v>
+        <v>1.1583</v>
       </c>
       <c r="J42" t="n">
-        <v>1.1583</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -12426,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -12438,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -12507,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
         <v>0</v>
@@ -12615,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="BY42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ42" t="n">
         <v>0</v>
@@ -12660,60 +12540,57 @@
         <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO42" t="n">
         <v>0</v>
       </c>
       <c r="CP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>918112</v>
       </c>
       <c r="E43" t="n">
-        <v>918112</v>
+        <v>6306897</v>
       </c>
       <c r="F43" t="n">
-        <v>6306897</v>
+        <v>724392</v>
       </c>
       <c r="G43" t="n">
-        <v>724392</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>60000000000000</v>
       </c>
       <c r="I43" t="n">
-        <v>60000000000000</v>
+        <v>0.1172</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1172</v>
+        <v>5.4</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -12773,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
         <v>0</v>
@@ -12926,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -12953,48 +12830,45 @@
         <v>0</v>
       </c>
       <c r="CP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C44" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" t="n">
-        <v>79</v>
+        <v>2250430</v>
       </c>
       <c r="E44" t="n">
-        <v>2250430</v>
+        <v>12668325</v>
       </c>
       <c r="F44" t="n">
-        <v>12668325</v>
+        <v>2881115.25</v>
       </c>
       <c r="G44" t="n">
-        <v>2881115.25</v>
+        <v>25.075</v>
       </c>
       <c r="H44" t="n">
-        <v>25.075</v>
+        <v>38000000000000</v>
       </c>
       <c r="I44" t="n">
-        <v>38000000000000</v>
+        <v>1.5647</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5647</v>
+        <v>6.8</v>
       </c>
       <c r="K44" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -13060,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
@@ -13213,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH44" t="n">
         <v>0</v>
@@ -13240,51 +13114,48 @@
         <v>0</v>
       </c>
       <c r="CP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D45" t="n">
-        <v>75</v>
+        <v>14504315</v>
       </c>
       <c r="E45" t="n">
-        <v>14504315</v>
+        <v>66220028</v>
       </c>
       <c r="F45" t="n">
-        <v>66220028</v>
+        <v>9724832</v>
       </c>
       <c r="G45" t="n">
-        <v>9724832</v>
+        <v>0.1281</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1281</v>
+        <v>48000000000000</v>
       </c>
       <c r="I45" t="n">
-        <v>48000000000000</v>
+        <v>1.5822</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5822</v>
+        <v>6.486193784032172</v>
       </c>
       <c r="K45" t="n">
-        <v>6.486193784032172</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -13308,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -13368,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
         <v>0</v>
@@ -13434,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="BK45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL45" t="n">
         <v>0</v>
@@ -13521,51 +13392,48 @@
         <v>0</v>
       </c>
       <c r="CN45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO45" t="n">
         <v>0</v>
       </c>
       <c r="CP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D46" t="n">
-        <v>85</v>
+        <v>11001961</v>
       </c>
       <c r="E46" t="n">
-        <v>11001961</v>
+        <v>40442052</v>
       </c>
       <c r="F46" t="n">
-        <v>40442052</v>
+        <v>186435244</v>
       </c>
       <c r="G46" t="n">
-        <v>186435244</v>
+        <v>0.8217</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8217</v>
+        <v>40000000000000</v>
       </c>
       <c r="I46" t="n">
-        <v>40000000000000</v>
+        <v>5.671900000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>5.671900000000001</v>
+        <v>6.465273369634317</v>
       </c>
       <c r="K46" t="n">
-        <v>6.465273369634317</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -13577,10 +13445,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -13589,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -13640,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
         <v>0</v>
@@ -13724,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="BL46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM46" t="n">
         <v>0</v>
@@ -13793,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -13814,54 +13682,51 @@
         <v>0</v>
       </c>
       <c r="CP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C47" t="n">
         <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>85</v>
+        <v>338999</v>
       </c>
       <c r="E47" t="n">
-        <v>338999</v>
+        <v>4153783</v>
       </c>
       <c r="F47" t="n">
-        <v>4153783</v>
+        <v>25419</v>
       </c>
       <c r="G47" t="n">
-        <v>25419</v>
+        <v>0.0061</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0061</v>
+        <v>54700000000000</v>
       </c>
       <c r="I47" t="n">
-        <v>54700000000000</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="J47" t="n">
-        <v>5.583269230769232</v>
+        <v>6.442958260943271</v>
       </c>
       <c r="K47" t="n">
-        <v>6.442958260943271</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -13912,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
         <v>0</v>
@@ -13930,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
         <v>0</v>
@@ -14044,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="BW47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX47" t="n">
         <v>0</v>
@@ -14083,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK47" t="n">
         <v>0</v>
@@ -14101,45 +13966,42 @@
         <v>0</v>
       </c>
       <c r="CP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C48" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>47</v>
+        <v>53807379</v>
       </c>
       <c r="E48" t="n">
-        <v>53807379</v>
+        <v>117450119</v>
       </c>
       <c r="F48" t="n">
-        <v>117450119</v>
+        <v>248100000</v>
       </c>
       <c r="G48" t="n">
-        <v>248100000</v>
+        <v>0.6787000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6787000000000001</v>
+        <v>22000000000000</v>
       </c>
       <c r="I48" t="n">
-        <v>22000000000000</v>
+        <v>16.6159</v>
       </c>
       <c r="J48" t="n">
-        <v>16.6159</v>
+        <v>6.41915547833949</v>
       </c>
       <c r="K48" t="n">
-        <v>6.41915547833949</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -14151,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -14196,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -14235,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -14349,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="CC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD48" t="n">
         <v>0</v>
@@ -14388,45 +14250,42 @@
         <v>0</v>
       </c>
       <c r="CP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D49" t="n">
-        <v>69</v>
+        <v>12891123</v>
       </c>
       <c r="E49" t="n">
-        <v>12891123</v>
+        <v>45630104</v>
       </c>
       <c r="F49" t="n">
-        <v>45630104</v>
+        <v>84668080</v>
       </c>
       <c r="G49" t="n">
-        <v>84668080</v>
+        <v>0.6498</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6498</v>
+        <v>90000000000000</v>
       </c>
       <c r="I49" t="n">
-        <v>90000000000000</v>
+        <v>1.4478</v>
       </c>
       <c r="J49" t="n">
-        <v>1.4478</v>
+        <v>6.3</v>
       </c>
       <c r="K49" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -14438,13 +14297,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -14459,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -14522,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -14600,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR49" t="n">
         <v>0</v>
@@ -14639,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE49" t="n">
         <v>0</v>
@@ -14675,48 +14534,45 @@
         <v>0</v>
       </c>
       <c r="CP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C50" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" t="n">
-        <v>84</v>
+        <v>357115007</v>
       </c>
       <c r="E50" t="n">
-        <v>357115007</v>
+        <v>858373000</v>
       </c>
       <c r="F50" t="n">
-        <v>858373000</v>
+        <v>1939427564</v>
       </c>
       <c r="G50" t="n">
-        <v>1939427564</v>
+        <v>69.3</v>
       </c>
       <c r="H50" t="n">
-        <v>69.3</v>
+        <v>356000000000000</v>
       </c>
       <c r="I50" t="n">
-        <v>356000000000000</v>
+        <v>7.859</v>
       </c>
       <c r="J50" t="n">
-        <v>7.859</v>
+        <v>8.4</v>
       </c>
       <c r="K50" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -14734,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -14776,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
         <v>0</v>
@@ -14911,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="BY50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ50" t="n">
         <v>0</v>
@@ -14929,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF50" t="n">
         <v>0</v>
@@ -14962,48 +14818,45 @@
         <v>0</v>
       </c>
       <c r="CP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C51" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D51" t="n">
-        <v>86</v>
+        <v>53505326</v>
       </c>
       <c r="E51" t="n">
-        <v>53505326</v>
+        <v>56830326</v>
       </c>
       <c r="F51" t="n">
-        <v>56830326</v>
+        <v>102300000</v>
       </c>
       <c r="G51" t="n">
-        <v>102300000</v>
+        <v>64.3</v>
       </c>
       <c r="H51" t="n">
-        <v>64.3</v>
+        <v>100000000000000</v>
       </c>
       <c r="I51" t="n">
-        <v>100000000000000</v>
+        <v>1.5913</v>
       </c>
       <c r="J51" t="n">
-        <v>1.5913</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -15021,16 +14874,16 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -15063,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
@@ -15156,10 +15009,10 @@
         <v>0</v>
       </c>
       <c r="BK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM51" t="n">
         <v>0</v>
@@ -15198,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -15216,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF51" t="n">
         <v>0</v>
@@ -15249,9 +15102,6 @@
         <v>0</v>
       </c>
       <c r="CP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/to_predict_final.xlsx
+++ b/to_predict_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP51"/>
+  <dimension ref="A1:CO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,517 +434,507 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best supporting actor </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>average critics</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>average audience</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>opening weekend</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>domestic gross</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>foreign gross</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>of gross earned abroad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>adaptation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>based on a true story</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>remake</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>sequel</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>sci-fi</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>mystery</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>documentary</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>_april</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>_august</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>_december</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>_february</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>_january</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>_july</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>_june</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>_march</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>_may</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>_november</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>_october</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>_september</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">best actress </t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>best cinematography</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>sound editing</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>best animated film</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>best editing</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>best original song</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>costume design</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>best art direction</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>make up and hair styling</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>actor in a supporting role</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>directing</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>best film editing</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>film editing</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>best sound</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a leading role</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>production design</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>animated feature film</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>sound mixing</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>actor in a leading role</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>actor in a supporting role</t>
+          <t>best original screenplay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>actress in a leading role</t>
+          <t>best picture</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>actress in a supporting role</t>
+          <t>best visual effects</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>animated feature film</t>
+          <t>best sound editing</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ben wilkins and thomas curley)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>best actor</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>best actor (matthew mcconaughey)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>best actress</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>best actress (cate blanchett)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>best adapted screenplay</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>best animated feature</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>best animated film</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>best art direction</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>best cinematography</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>best director</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>best editing</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>best film editing (tom cross)</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay (spike jonze)</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>best original song</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>best picture</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>best sound</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>best sound editing</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>best sound mixing (craig mann</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (j.k. simmons)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actor (jared leto)</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress (patricia arquette)</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>best visual effects</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>cinematography</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>costume design</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>directing</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>film editing</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>make up and hair styling</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>original song</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>production design</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>sound editing</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>sound mixing</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>visual effects</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>writing (adapted screenplay)</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>writing (original screenplay)</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>sports</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>comedy</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>sci-fi</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>mystery</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>documentary</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>war</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>western</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>_april</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>_august</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>_december</t>
-        </is>
-      </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>_february</t>
+          <t xml:space="preserve">best actor </t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>_january</t>
+          <t xml:space="preserve">best supporting actress </t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>_july</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>_june</t>
+          <t xml:space="preserve">best film editing </t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>_march</t>
+          <t xml:space="preserve">best sound mixing </t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>_may</t>
+          <t xml:space="preserve">best makeup and hairstyling </t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>_november</t>
+          <t xml:space="preserve">writing </t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>_october</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>_september</t>
+          <t xml:space="preserve">best original screenplay </t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>66.30769230769231</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>21000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>3640355</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>62525155</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>21000000000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>3.1507</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>6.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -952,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1006,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -1054,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
@@ -1135,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1183,52 +1173,49 @@
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>84</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>1399373</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>3973263</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>115674827.125</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.4687875</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>63614285714285.72</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>4.9</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -1236,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1263,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1338,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -1392,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
         <v>0</v>
@@ -1467,57 +1454,54 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>36</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>80</v>
       </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>8901419</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>21360215</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>223648651.4166667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>51.29999999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>44000000000000</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.4855</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>6.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1526,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1610,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1661,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
@@ -1739,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -1751,57 +1735,54 @@
         <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>65</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>2919717</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>8286741</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>12959213</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.61</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>0.3541</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>6.7</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1810,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1855,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1894,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1984,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
@@ -2023,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2035,54 +2016,51 @@
         <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
+      <c r="F6" t="n">
         <v>57</v>
       </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
         <v>14711101</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>50316123</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>40928790</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.4486</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>12000000000000</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>7.6037</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>6.7</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -2091,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -2100,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2184,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -2229,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -2313,60 +2291,57 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>16627491</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>48947356</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>40928790</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.4486</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>64000000000000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>1.2253</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>5.9</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2375,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -2384,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2420,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -2471,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
@@ -2513,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -2549,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" t="n">
         <v>0</v>
@@ -2600,55 +2575,52 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
         <v>54</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>2540240</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>6782066</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>8961988</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>57.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>73183333333333.33</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>5.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
@@ -2656,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -2668,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2722,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -2746,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2797,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -2851,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -2875,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -2887,52 +2859,49 @@
         <v>0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
         <v>67</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
         <v>81</v>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>31625971</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>100916094</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>30813958.125</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>12.753675</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>155000000000000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>3.0196</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>6.3</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -2940,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2955,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -3033,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3084,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -3162,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
@@ -3171,52 +3140,49 @@
         <v>0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>54</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>47</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>1763070</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>3005408</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>208313889.7440476</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>51.72857142857141</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.6011</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>5.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
@@ -3224,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3236,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3317,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -3365,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -3446,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
@@ -3455,57 +3421,54 @@
         <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>55</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>30035838</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>80001807</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>173888894</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>68.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>110000000000000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>2.3081</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>5.6</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -3514,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -3523,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -3598,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3652,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -3727,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -3739,54 +3702,51 @@
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
         <v>62</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>53</v>
       </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>26608020</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>68549695</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>62907452</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>0.4785</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>42000000000000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>3.1299</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -3843,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -3897,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
@@ -3972,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
@@ -4024,53 +3984,50 @@
       </c>
       <c r="CO12" t="n">
         <v>0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
         <v>54</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="n">
         <v>80</v>
       </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>251569</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>3689637</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>33545454.390625</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>7.185384375</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>59857142857142.86</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>1.72075</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>6.9</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -4133,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -4166,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4262,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -4295,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -4307,54 +4264,51 @@
         <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
         <v>89</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>82</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>11504710</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>29975167</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>29875204.68945312</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>8.023744921875</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>55000000000000</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.7936</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>7.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4408,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -4450,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4537,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -4579,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
@@ -4591,52 +4545,49 @@
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
         <v>25</v>
       </c>
-      <c r="C15" t="n">
+      <c r="F15" t="n">
         <v>46</v>
       </c>
-      <c r="D15" t="n">
+      <c r="G15" t="n">
         <v>3106730</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>6546159</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>906254</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>1.4905</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -4644,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -4656,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -4746,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
@@ -4785,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -4875,52 +4826,49 @@
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
         <v>37</v>
       </c>
-      <c r="C16" t="n">
+      <c r="F16" t="n">
         <v>51</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
         <v>5319280</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>17000612</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>25746173.77563477</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>8.966900537109375</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>25000000000000</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>1.6764</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>5.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
@@ -4928,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4949,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -4994,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -5027,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -5078,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -5123,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
         <v>0</v>
@@ -5156,60 +5104,57 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
         <v>79</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="n">
         <v>77</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>75812205</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>211630916</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>333301651</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>0.6115999999999999</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>195000000000000</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>2.7945</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>6.239999999999998</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5218,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -5266,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -5299,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -5395,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -5428,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -5443,54 +5388,51 @@
         <v>0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
         <v>58</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="n">
         <v>62</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>25010928</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>115234093</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>235984098</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>0.6718999999999999</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>50000000000000</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>7.024400000000001</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>6.309333333333332</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -5511,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -5577,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5640,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -5706,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -5727,54 +5669,51 @@
         <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
         <v>75</v>
       </c>
-      <c r="C19" t="n">
+      <c r="F19" t="n">
         <v>80</v>
       </c>
-      <c r="D19" t="n">
+      <c r="G19" t="n">
         <v>16000495</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>44141550</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>48559860</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>0.5238</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>40000000000000</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>2.3175</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>7.4</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -5861,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5990,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="CH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -6011,54 +5950,51 @@
         <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
         <v>65</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>76</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>5861836</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>26514814</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>28851163.74758911</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>8.587763104248047</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>25000000000000</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>1.72075</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>7.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -6112,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -6142,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -6241,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" t="n">
         <v>0</v>
@@ -6271,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -6295,57 +6231,54 @@
         <v>0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
         <v>80</v>
       </c>
-      <c r="C21" t="n">
+      <c r="F21" t="n">
         <v>68</v>
       </c>
-      <c r="D21" t="n">
+      <c r="G21" t="n">
         <v>56237634</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>187164171</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>217884434</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>0.5379</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>175000000000000</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>2.3146</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>6.383288888888887</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -6354,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -6372,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -6447,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -6501,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
@@ -6576,60 +6509,57 @@
         <v>0</v>
       </c>
       <c r="CN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
         <v>72</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
         <v>77</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>805000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>10640105</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>4739790</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>0.3082</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>300000000000</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>61.5196</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>6.1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -6638,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -6731,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -6860,57 +6790,54 @@
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="n">
         <v>47</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>4003993</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>9561064</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>17804403</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>0.6506000000000001</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>9.773400000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>6.335508148148147</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -6919,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -6964,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -7009,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
@@ -7093,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX23" t="n">
         <v>0</v>
@@ -7138,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM23" t="n">
         <v>0</v>
@@ -7147,54 +7074,51 @@
         <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
         <v>73</v>
       </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
         <v>75</v>
       </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>1755325</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>4330720</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>102933</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>0.0232</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>63614285714285.72</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>6.8</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -7203,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -7230,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -7263,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
@@ -7293,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -7359,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
@@ -7392,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="n">
         <v>0</v>
@@ -7422,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -7431,52 +7355,49 @@
         <v>0</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
         <v>75</v>
       </c>
-      <c r="C25" t="n">
+      <c r="F25" t="n">
         <v>72</v>
       </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>3600355</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>9030855</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>9042578</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>50</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>6000000000000</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>3.0122</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>6.3</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -7484,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -7583,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -7712,55 +7633,52 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
         <v>63.625</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
         <v>21115423.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>2033057</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>3475600</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>0.6309</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>1.1017</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>2.5</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
@@ -7768,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -7798,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -7831,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -7867,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" t="n">
         <v>0</v>
@@ -7927,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
@@ -7960,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="CB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC26" t="n">
         <v>0</v>
@@ -7996,55 +7914,52 @@
         <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
         <v>34</v>
       </c>
-      <c r="C27" t="n">
+      <c r="F27" t="n">
         <v>54</v>
       </c>
-      <c r="D27" t="n">
+      <c r="G27" t="n">
         <v>700160</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>2241980</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>1033099</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
         <v>30.3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="K27" t="n">
         <v>34666666666666.66</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>1.5647</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>6.1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
@@ -8052,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -8130,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
         <v>0</v>
@@ -8259,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -8283,52 +8198,49 @@
         <v>0</v>
       </c>
       <c r="CO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
         <v>83</v>
       </c>
-      <c r="C28" t="n">
+      <c r="F28" t="n">
         <v>87</v>
       </c>
-      <c r="D28" t="n">
+      <c r="G28" t="n">
         <v>204793</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>20437883</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>315805</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>1.4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
         <v>6200000000000</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
         <v>3.3474</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>7.6</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
@@ -8336,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -8351,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -8411,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -8480,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="BL28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
         <v>0</v>
@@ -8540,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="CF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG28" t="n">
         <v>0</v>
@@ -8567,52 +8479,49 @@
         <v>0</v>
       </c>
       <c r="CO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
         <v>75</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>68</v>
       </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>246305</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>15500045</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>6887012</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>30.8</v>
       </c>
-      <c r="H29" t="n">
+      <c r="K29" t="n">
         <v>4000000000000</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>5.596799999999999</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>6.5</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
@@ -8620,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -8632,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -8710,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -8761,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="BK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" t="n">
         <v>0</v>
@@ -8839,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL29" t="n">
         <v>0</v>
@@ -8851,52 +8760,49 @@
         <v>0</v>
       </c>
       <c r="CO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
         <v>55</v>
       </c>
-      <c r="C30" t="n">
+      <c r="F30" t="n">
         <v>72</v>
       </c>
-      <c r="D30" t="n">
+      <c r="G30" t="n">
         <v>10101066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>40501717</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>26387576.71603775</v>
       </c>
-      <c r="G30" t="n">
+      <c r="J30" t="n">
         <v>9.595758492279053</v>
       </c>
-      <c r="H30" t="n">
+      <c r="K30" t="n">
         <v>45000000000000</v>
       </c>
-      <c r="I30" t="n">
+      <c r="L30" t="n">
         <v>3.355</v>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
         <v>6.2</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
@@ -8904,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -8916,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -8931,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -8955,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -8994,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -9045,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL30" t="n">
         <v>0</v>
@@ -9060,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30" t="n">
         <v>0</v>
@@ -9084,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="BX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY30" t="n">
         <v>0</v>
@@ -9123,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="CK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL30" t="n">
         <v>0</v>
@@ -9135,52 +9041,49 @@
         <v>0</v>
       </c>
       <c r="CO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
         <v>40</v>
       </c>
-      <c r="C31" t="n">
+      <c r="F31" t="n">
         <v>57</v>
       </c>
-      <c r="D31" t="n">
+      <c r="G31" t="n">
         <v>6444896</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>14947969</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>14452857</v>
       </c>
-      <c r="G31" t="n">
+      <c r="J31" t="n">
         <v>0.4916</v>
       </c>
-      <c r="H31" t="n">
+      <c r="K31" t="n">
         <v>80000000000000</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
         <v>0.3675</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>6.1</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
@@ -9188,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -9218,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -9236,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -9245,13 +9148,13 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -9278,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -9347,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" t="n">
         <v>0</v>
@@ -9365,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="BW31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX31" t="n">
         <v>0</v>
@@ -9374,13 +9277,13 @@
         <v>0</v>
       </c>
       <c r="BZ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA31" t="n">
         <v>0</v>
       </c>
       <c r="CB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" t="n">
         <v>0</v>
@@ -9407,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="CK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL31" t="n">
         <v>0</v>
@@ -9419,57 +9322,54 @@
         <v>0</v>
       </c>
       <c r="CO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
         <v>62</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
         <v>58</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>7768371</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>29796477</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>112069769.6666667</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>6.351208691358024</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -9520,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -9550,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
@@ -9649,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="BW32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX32" t="n">
         <v>0</v>
@@ -9679,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH32" t="n">
         <v>0</v>
@@ -9703,57 +9603,54 @@
         <v>0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
         <v>66</v>
       </c>
-      <c r="C33" t="n">
+      <c r="F33" t="n">
         <v>54</v>
       </c>
-      <c r="D33" t="n">
+      <c r="G33" t="n">
         <v>4651571</v>
       </c>
-      <c r="E33" t="n">
+      <c r="H33" t="n">
         <v>8237403</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>28825147.30554247</v>
       </c>
-      <c r="G33" t="n">
+      <c r="J33" t="n">
         <v>6.945228303813934</v>
       </c>
-      <c r="H33" t="n">
+      <c r="K33" t="n">
         <v>50000000000000</v>
       </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
         <v>0.2546</v>
       </c>
-      <c r="J33" t="n">
+      <c r="M33" t="n">
         <v>6.3</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -9804,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -9858,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" t="n">
         <v>0</v>
@@ -9933,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="BW33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX33" t="n">
         <v>0</v>
@@ -9987,57 +9884,54 @@
         <v>0</v>
       </c>
       <c r="CO33" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
         <v>70</v>
       </c>
-      <c r="C34" t="n">
+      <c r="F34" t="n">
         <v>71</v>
       </c>
-      <c r="D34" t="n">
+      <c r="G34" t="n">
         <v>34952180</v>
       </c>
-      <c r="E34" t="n">
+      <c r="H34" t="n">
         <v>115620025</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>234951977</v>
       </c>
-      <c r="G34" t="n">
+      <c r="J34" t="n">
         <v>0.6701999999999999</v>
       </c>
-      <c r="H34" t="n">
+      <c r="K34" t="n">
         <v>75000000000000</v>
       </c>
-      <c r="I34" t="n">
+      <c r="L34" t="n">
         <v>4.6743</v>
       </c>
-      <c r="J34" t="n">
+      <c r="M34" t="n">
         <v>6.367955937448558</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10046,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -10073,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -10127,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -10202,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="BR34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34" t="n">
         <v>0</v>
@@ -10256,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="CJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -10271,52 +10165,49 @@
         <v>0</v>
       </c>
       <c r="CO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
         <v>32</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>35</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>13743111</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>31713110</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>1819483</v>
       </c>
-      <c r="G35" t="n">
+      <c r="J35" t="n">
         <v>0.05429999999999999</v>
       </c>
-      <c r="H35" t="n">
+      <c r="K35" t="n">
         <v>19000000000000</v>
       </c>
-      <c r="I35" t="n">
+      <c r="L35" t="n">
         <v>1.7649</v>
       </c>
-      <c r="J35" t="n">
+      <c r="M35" t="n">
         <v>6.372486333278462</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
@@ -10324,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10336,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -10423,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX35" t="n">
         <v>0</v>
@@ -10465,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="BK35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" t="n">
         <v>0</v>
@@ -10552,55 +10443,52 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
         <v>35</v>
       </c>
-      <c r="C36" t="n">
+      <c r="F36" t="n">
         <v>44</v>
       </c>
-      <c r="D36" t="n">
+      <c r="G36" t="n">
         <v>26347631</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>54733739</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
         <v>67400000</v>
       </c>
-      <c r="G36" t="n">
+      <c r="J36" t="n">
         <v>55.2</v>
       </c>
-      <c r="H36" t="n">
+      <c r="K36" t="n">
         <v>9000000000000</v>
       </c>
-      <c r="I36" t="n">
+      <c r="L36" t="n">
         <v>13.5704</v>
       </c>
-      <c r="J36" t="n">
+      <c r="M36" t="n">
         <v>5.2</v>
       </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
@@ -10608,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10674,13 +10562,13 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" t="n">
         <v>0</v>
@@ -10803,13 +10691,13 @@
         <v>0</v>
       </c>
       <c r="CC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD36" t="n">
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF36" t="n">
         <v>0</v>
@@ -10839,52 +10727,49 @@
         <v>0</v>
       </c>
       <c r="CO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
         <v>53</v>
       </c>
-      <c r="C37" t="n">
+      <c r="F37" t="n">
         <v>53</v>
       </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
         <v>13582231</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
         <v>68566296</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>118577563.8444445</v>
       </c>
-      <c r="G37" t="n">
+      <c r="J37" t="n">
         <v>4.078813333333334</v>
       </c>
-      <c r="H37" t="n">
+      <c r="K37" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="I37" t="n">
+      <c r="L37" t="n">
         <v>6.856599999999999</v>
       </c>
-      <c r="J37" t="n">
+      <c r="M37" t="n">
         <v>6.377318755497027</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -10892,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10904,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -10988,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
@@ -11033,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="BK37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" t="n">
         <v>0</v>
@@ -11117,60 +11002,57 @@
         <v>0</v>
       </c>
       <c r="CM37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN37" t="n">
         <v>0</v>
       </c>
       <c r="CO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
         <v>44</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>86</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>8137584</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>26402818</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>7371145</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="n">
         <v>21.9</v>
       </c>
-      <c r="H38" t="n">
+      <c r="K38" t="n">
         <v>73183333333333.33</v>
       </c>
-      <c r="I38" t="n">
+      <c r="L38" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="J38" t="n">
+      <c r="M38" t="n">
         <v>7.5</v>
       </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11224,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
@@ -11251,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" t="n">
         <v>0</v>
@@ -11353,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38" t="n">
         <v>0</v>
@@ -11380,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="CF38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG38" t="n">
         <v>0</v>
@@ -11407,54 +11289,51 @@
         <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
         <v>87</v>
       </c>
-      <c r="C39" t="n">
+      <c r="F39" t="n">
         <v>85</v>
       </c>
-      <c r="D39" t="n">
+      <c r="G39" t="n">
         <v>126707459</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>718732821</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>756440284</v>
       </c>
-      <c r="G39" t="n">
+      <c r="J39" t="n">
         <v>0.5128</v>
       </c>
-      <c r="H39" t="n">
+      <c r="K39" t="n">
         <v>170000000000000</v>
       </c>
-      <c r="I39" t="n">
+      <c r="L39" t="n">
         <v>8.6775</v>
       </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11508,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -11535,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39" t="n">
         <v>0</v>
@@ -11637,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="BW39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX39" t="n">
         <v>0</v>
@@ -11664,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG39" t="n">
         <v>0</v>
@@ -11691,57 +11570,54 @@
         <v>0</v>
       </c>
       <c r="CO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
         <v>45</v>
       </c>
-      <c r="C40" t="n">
+      <c r="F40" t="n">
         <v>78</v>
       </c>
-      <c r="D40" t="n">
+      <c r="G40" t="n">
         <v>47776293</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>110500138</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>275400000</v>
       </c>
-      <c r="G40" t="n">
+      <c r="J40" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="H40" t="n">
+      <c r="K40" t="n">
         <v>170000000000000</v>
       </c>
-      <c r="I40" t="n">
+      <c r="L40" t="n">
         <v>2.27</v>
       </c>
-      <c r="J40" t="n">
+      <c r="M40" t="n">
         <v>6</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11750,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -11798,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
@@ -11840,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -11927,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="BY40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40" t="n">
         <v>0</v>
@@ -11969,63 +11845,60 @@
         <v>0</v>
       </c>
       <c r="CM40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN40" t="n">
         <v>0</v>
       </c>
       <c r="CO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
         <v>89</v>
       </c>
-      <c r="C41" t="n">
+      <c r="F41" t="n">
         <v>78</v>
       </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
         <v>10845330</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>32316575</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>9325905</v>
       </c>
-      <c r="G41" t="n">
+      <c r="J41" t="n">
         <v>0.224</v>
       </c>
-      <c r="H41" t="n">
+      <c r="K41" t="n">
         <v>15000000000000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="L41" t="n">
         <v>2.7762</v>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
         <v>6.455806672530161</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -12091,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" t="n">
         <v>0</v>
@@ -12103,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" t="n">
         <v>0</v>
@@ -12220,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="CB41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC41" t="n">
         <v>0</v>
@@ -12232,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="CF41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG41" t="n">
         <v>0</v>
@@ -12259,54 +12132,51 @@
         <v>0</v>
       </c>
       <c r="CO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
         <v>53</v>
       </c>
-      <c r="C42" t="n">
+      <c r="F42" t="n">
         <v>54</v>
       </c>
-      <c r="D42" t="n">
+      <c r="G42" t="n">
         <v>8351109</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>17199425</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>38400000</v>
       </c>
-      <c r="G42" t="n">
+      <c r="J42" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="H42" t="n">
+      <c r="K42" t="n">
         <v>48000000000000</v>
       </c>
-      <c r="I42" t="n">
+      <c r="L42" t="n">
         <v>1.1583</v>
       </c>
-      <c r="J42" t="n">
+      <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -12315,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -12366,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" t="n">
         <v>0</v>
@@ -12411,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" t="n">
         <v>0</v>
@@ -12495,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="BY42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ42" t="n">
         <v>0</v>
@@ -12540,55 +12410,52 @@
         <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
         <v>44</v>
       </c>
-      <c r="C43" t="n">
+      <c r="F43" t="n">
         <v>69</v>
       </c>
-      <c r="D43" t="n">
+      <c r="G43" t="n">
         <v>918112</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>6306897</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>724392</v>
       </c>
-      <c r="G43" t="n">
+      <c r="J43" t="n">
         <v>10</v>
       </c>
-      <c r="H43" t="n">
+      <c r="K43" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="I43" t="n">
+      <c r="L43" t="n">
         <v>0.1172</v>
       </c>
-      <c r="J43" t="n">
+      <c r="M43" t="n">
         <v>5.4</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -12596,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -12674,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" t="n">
         <v>0</v>
@@ -12803,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -12827,54 +12694,51 @@
         <v>0</v>
       </c>
       <c r="CO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
         <v>81</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>79</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>2250430</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>12668325</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
         <v>2881115.25</v>
       </c>
-      <c r="G44" t="n">
+      <c r="J44" t="n">
         <v>25.075</v>
       </c>
-      <c r="H44" t="n">
+      <c r="K44" t="n">
         <v>38000000000000</v>
       </c>
-      <c r="I44" t="n">
+      <c r="L44" t="n">
         <v>1.5647</v>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
         <v>6.8</v>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -12958,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
         <v>0</v>
@@ -13087,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH44" t="n">
         <v>0</v>
@@ -13111,57 +12975,54 @@
         <v>0</v>
       </c>
       <c r="CO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
         <v>70</v>
       </c>
-      <c r="C45" t="n">
+      <c r="F45" t="n">
         <v>75</v>
       </c>
-      <c r="D45" t="n">
+      <c r="G45" t="n">
         <v>14504315</v>
       </c>
-      <c r="E45" t="n">
+      <c r="H45" t="n">
         <v>66220028</v>
       </c>
-      <c r="F45" t="n">
+      <c r="I45" t="n">
         <v>9724832</v>
       </c>
-      <c r="G45" t="n">
+      <c r="J45" t="n">
         <v>0.1281</v>
       </c>
-      <c r="H45" t="n">
+      <c r="K45" t="n">
         <v>48000000000000</v>
       </c>
-      <c r="I45" t="n">
+      <c r="L45" t="n">
         <v>1.5822</v>
       </c>
-      <c r="J45" t="n">
+      <c r="M45" t="n">
         <v>6.486193784032172</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -13176,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -13263,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" t="n">
         <v>0</v>
@@ -13305,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="BK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45" t="n">
         <v>0</v>
@@ -13392,60 +13253,57 @@
         <v>0</v>
       </c>
       <c r="CN45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
         <v>94</v>
       </c>
-      <c r="C46" t="n">
+      <c r="F46" t="n">
         <v>85</v>
       </c>
-      <c r="D46" t="n">
+      <c r="G46" t="n">
         <v>11001961</v>
       </c>
-      <c r="E46" t="n">
+      <c r="H46" t="n">
         <v>40442052</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>186435244</v>
       </c>
-      <c r="G46" t="n">
+      <c r="J46" t="n">
         <v>0.8217</v>
       </c>
-      <c r="H46" t="n">
+      <c r="K46" t="n">
         <v>40000000000000</v>
       </c>
-      <c r="I46" t="n">
+      <c r="L46" t="n">
         <v>5.671900000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>6.465273369634317</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -13454,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -13463,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -13532,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46" t="n">
         <v>0</v>
@@ -13592,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="BL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" t="n">
         <v>0</v>
@@ -13661,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -13679,52 +13537,49 @@
         <v>0</v>
       </c>
       <c r="CO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
         <v>85</v>
       </c>
-      <c r="C47" t="n">
+      <c r="F47" t="n">
         <v>85</v>
       </c>
-      <c r="D47" t="n">
+      <c r="G47" t="n">
         <v>338999</v>
       </c>
-      <c r="E47" t="n">
+      <c r="H47" t="n">
         <v>4153783</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>25419</v>
       </c>
-      <c r="G47" t="n">
+      <c r="J47" t="n">
         <v>0.0061</v>
       </c>
-      <c r="H47" t="n">
+      <c r="K47" t="n">
         <v>54700000000000</v>
       </c>
-      <c r="I47" t="n">
+      <c r="L47" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="J47" t="n">
+      <c r="M47" t="n">
         <v>6.442958260943271</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
@@ -13732,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -13780,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -13819,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
@@ -13909,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="BW47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX47" t="n">
         <v>0</v>
@@ -13948,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="CJ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK47" t="n">
         <v>0</v>
@@ -13963,57 +13818,54 @@
         <v>0</v>
       </c>
       <c r="CO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
         <v>36</v>
       </c>
-      <c r="C48" t="n">
+      <c r="F48" t="n">
         <v>47</v>
       </c>
-      <c r="D48" t="n">
+      <c r="G48" t="n">
         <v>53807379</v>
       </c>
-      <c r="E48" t="n">
+      <c r="H48" t="n">
         <v>117450119</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>248100000</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
         <v>0.6787000000000001</v>
       </c>
-      <c r="H48" t="n">
+      <c r="K48" t="n">
         <v>22000000000000</v>
       </c>
-      <c r="I48" t="n">
+      <c r="L48" t="n">
         <v>16.6159</v>
       </c>
-      <c r="J48" t="n">
+      <c r="M48" t="n">
         <v>6.41915547833949</v>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -14022,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -14082,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48" t="n">
         <v>0</v>
@@ -14121,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="AY48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48" t="n">
         <v>0</v>
@@ -14211,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="CC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD48" t="n">
         <v>0</v>
@@ -14248,56 +14100,53 @@
       </c>
       <c r="CO48" t="n">
         <v>0</v>
-      </c>
-      <c r="CP48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
         <v>57</v>
       </c>
-      <c r="C49" t="n">
+      <c r="F49" t="n">
         <v>69</v>
       </c>
-      <c r="D49" t="n">
+      <c r="G49" t="n">
         <v>12891123</v>
       </c>
-      <c r="E49" t="n">
+      <c r="H49" t="n">
         <v>45630104</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>84668080</v>
       </c>
-      <c r="G49" t="n">
+      <c r="J49" t="n">
         <v>0.6498</v>
       </c>
-      <c r="H49" t="n">
+      <c r="K49" t="n">
         <v>90000000000000</v>
       </c>
-      <c r="I49" t="n">
+      <c r="L49" t="n">
         <v>1.4478</v>
       </c>
-      <c r="J49" t="n">
+      <c r="M49" t="n">
         <v>6.3</v>
       </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -14306,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -14330,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -14369,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
@@ -14405,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AY49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" t="n">
         <v>0</v>
@@ -14459,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR49" t="n">
         <v>0</v>
@@ -14498,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE49" t="n">
         <v>0</v>
@@ -14532,53 +14381,50 @@
       </c>
       <c r="CO49" t="n">
         <v>0</v>
-      </c>
-      <c r="CP49" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
         <v>86</v>
       </c>
-      <c r="C50" t="n">
+      <c r="F50" t="n">
         <v>84</v>
       </c>
-      <c r="D50" t="n">
+      <c r="G50" t="n">
         <v>357115007</v>
       </c>
-      <c r="E50" t="n">
+      <c r="H50" t="n">
         <v>858373000</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>1939427564</v>
       </c>
-      <c r="G50" t="n">
+      <c r="J50" t="n">
         <v>69.3</v>
       </c>
-      <c r="H50" t="n">
+      <c r="K50" t="n">
         <v>356000000000000</v>
       </c>
-      <c r="I50" t="n">
+      <c r="L50" t="n">
         <v>7.859</v>
       </c>
-      <c r="J50" t="n">
+      <c r="M50" t="n">
         <v>8.4</v>
       </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -14638,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" t="n">
         <v>0</v>
@@ -14656,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -14767,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="BY50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ50" t="n">
         <v>0</v>
@@ -14785,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF50" t="n">
         <v>0</v>
@@ -14815,54 +14661,51 @@
         <v>0</v>
       </c>
       <c r="CO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
         <v>81</v>
       </c>
-      <c r="C51" t="n">
+      <c r="F51" t="n">
         <v>86</v>
       </c>
-      <c r="D51" t="n">
+      <c r="G51" t="n">
         <v>53505326</v>
       </c>
-      <c r="E51" t="n">
+      <c r="H51" t="n">
         <v>56830326</v>
       </c>
-      <c r="F51" t="n">
+      <c r="I51" t="n">
         <v>102300000</v>
       </c>
-      <c r="G51" t="n">
+      <c r="J51" t="n">
         <v>64.3</v>
       </c>
-      <c r="H51" t="n">
+      <c r="K51" t="n">
         <v>100000000000000</v>
       </c>
-      <c r="I51" t="n">
+      <c r="L51" t="n">
         <v>1.5913</v>
       </c>
-      <c r="J51" t="n">
+      <c r="M51" t="n">
         <v>7</v>
       </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -14880,10 +14723,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -14922,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
@@ -14940,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51" t="n">
         <v>0</v>
@@ -15009,10 +14852,10 @@
         <v>0</v>
       </c>
       <c r="BK51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" t="n">
         <v>0</v>
@@ -15051,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -15069,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF51" t="n">
         <v>0</v>
@@ -15099,9 +14942,6 @@
         <v>0</v>
       </c>
       <c r="CO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP51" t="n">
         <v>0</v>
       </c>
     </row>
